--- a/data/trans_orig/CALVIDA_EUROQOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_EUROQOL-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (EuroQol)</t>
+          <t>Calidad de vida asociada a la salud (EuroQol) (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CALVIDA_EUROQOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_EUROQOL-Estudios-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 0,9</t>
+          <t>0,87; 0,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,86</t>
+          <t>0,77; 0,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,8</t>
+          <t>0,72; 0,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,7</t>
+          <t>0,58; 0,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,83</t>
+          <t>0,78; 0,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -742,37 +742,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,91</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 0,92</t>
+          <t>0,91; 0,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 0,89</t>
+          <t>0,88; 0,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 0,9</t>
+          <t>0,9; 0,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -852,37 +852,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,93</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,37 +905,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,93; 0,95</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 0,98</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 0,95</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 0,93</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 0,96</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 0,93</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>0,92; 0,94</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 0,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,95</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,93</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 0,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,93</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 0,92</t>
+          <t>0,91; 0,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,19 +1025,19 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>0,89; 0,92</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 0,89</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>0,9; 0,92</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 0,88</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,92</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>0,83; 0,86</t>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 0,9</t>
+          <t>0,9; 0,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_orig/CALVIDA_EUROQOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_EUROQOL-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,9</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,76</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,81</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,77; 0,87</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 0,89</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,87; 0,91</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 0,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 0,87</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,58; 0,7</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 0,83</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,72; 0,79</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 0,77</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 0,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0,78; 0,83</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 0,7</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 0,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 0,85</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 0,77</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,91</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,89; 0,92</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 0,95</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,91; 0,93</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 0,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 0,92</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,85; 0,87</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 0,93</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,88; 0,9</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 0,93</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 0,87</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,87; 0,89</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 0,94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,9; 0,91</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,94</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 0,89</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>0,92; 0,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 0,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,92; 0,94</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 0,97</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,93</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,88</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>0,9</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,89; 0,92</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 0,94</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,91; 0,93</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 0,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 0,92</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>0,83; 0,86</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 0,92</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,87; 0,89</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 0,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 0,86</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>0,87; 0,88</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 0,93</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,9; 0,91</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 0,93</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 0,88</t>
         </is>
       </c>
     </row>
